--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsVA.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsVA.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>gentleman</t>
@@ -386,50 +392,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>78.33</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>78.33</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>90.99623299999999</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>30.33207766666666</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
+        <v>46.02</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>46.02</v>
       </c>
     </row>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsVA.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsVA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>occupation</t>
   </si>
@@ -25,13 +25,16 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>merchant</t>
+  </si>
+  <si>
     <t>gentleman</t>
-  </si>
-  <si>
-    <t>merchant</t>
   </si>
   <si>
     <t>weaver</t>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,47 +414,56 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>78.33</v>
+        <v>90.99623299999999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>78.33</v>
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>30.33207766666666</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>90.99623299999999</v>
+        <v>78.33</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>30.33207766666666</v>
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>78.33</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>46.02</v>
@@ -460,6 +472,9 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
         <v>46.02</v>
       </c>
     </row>
